--- a/2021/香港資訊科技從業員移民或離港意向調查/香港資訊科技從業員移民或離港意向調查.xlsx
+++ b/2021/香港資訊科技從業員移民或離港意向調查/香港資訊科技從業員移民或離港意向調查.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\hkitwu\SurveryReports\2021\香港資訊科技從業員移民或離港意向調查\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026AC9CA-C4AD-41FD-B81C-C9528213E961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4364ECB6-30B1-4EB5-BE46-7220335508FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="90">
   <si>
     <t>年齡層 Age Group</t>
   </si>
@@ -295,12 +295,27 @@
   <si>
     <t>年資</t>
   </si>
+  <si>
+    <t>持有一個或以上專業認證</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>並未持有任何專業認證</t>
+  </si>
+  <si>
+    <t>不便透露</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -314,6 +329,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -338,11 +358,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -561,11 +586,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P285"/>
+  <dimension ref="A1:P309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F292" sqref="F292"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G296" sqref="G296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12467,6 +12492,1006 @@
         <v>33</v>
       </c>
       <c r="O285" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D286" s="4">
+        <v>2</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F286" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G286" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H286" s="4">
+        <v>2</v>
+      </c>
+      <c r="I286" s="5"/>
+      <c r="J286" s="5"/>
+      <c r="K286" t="s">
+        <v>85</v>
+      </c>
+      <c r="L286" t="s">
+        <v>86</v>
+      </c>
+      <c r="P286" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D287" s="4">
+        <v>2</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F287" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G287" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H287" s="5"/>
+      <c r="I287" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J287" s="5"/>
+      <c r="K287" t="s">
+        <v>85</v>
+      </c>
+      <c r="L287" t="s">
+        <v>87</v>
+      </c>
+      <c r="M287" t="s">
+        <v>38</v>
+      </c>
+      <c r="N287" t="s">
+        <v>22</v>
+      </c>
+      <c r="O287" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D288" s="4">
+        <v>7</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F288" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G288" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H288" s="5"/>
+      <c r="I288" s="5"/>
+      <c r="J288" s="4">
+        <v>2020</v>
+      </c>
+      <c r="K288" t="s">
+        <v>85</v>
+      </c>
+      <c r="L288" t="s">
+        <v>87</v>
+      </c>
+      <c r="M288" t="s">
+        <v>79</v>
+      </c>
+      <c r="N288" t="s">
+        <v>41</v>
+      </c>
+      <c r="O288" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D289" s="4">
+        <v>2</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G289" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H289" s="5"/>
+      <c r="I289" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J289" s="5"/>
+      <c r="K289" t="s">
+        <v>85</v>
+      </c>
+      <c r="L289" t="s">
+        <v>87</v>
+      </c>
+      <c r="M289" t="s">
+        <v>52</v>
+      </c>
+      <c r="N289" t="s">
+        <v>33</v>
+      </c>
+      <c r="O289" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D290" s="5"/>
+      <c r="E290" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F290" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G290" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H290" s="5"/>
+      <c r="I290" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J290" s="5"/>
+      <c r="K290" t="s">
+        <v>88</v>
+      </c>
+      <c r="L290" t="s">
+        <v>87</v>
+      </c>
+      <c r="M290" t="s">
+        <v>38</v>
+      </c>
+      <c r="N290" t="s">
+        <v>65</v>
+      </c>
+      <c r="O290" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D291" s="4">
+        <v>0</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G291" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H291" s="5"/>
+      <c r="I291" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J291" s="5"/>
+      <c r="K291" t="s">
+        <v>88</v>
+      </c>
+      <c r="L291" t="s">
+        <v>87</v>
+      </c>
+      <c r="M291" t="s">
+        <v>52</v>
+      </c>
+      <c r="N291" t="s">
+        <v>41</v>
+      </c>
+      <c r="O291" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D292" s="5"/>
+      <c r="E292" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F292" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G292" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H292" s="5"/>
+      <c r="I292" s="5"/>
+      <c r="J292" s="4">
+        <v>2021</v>
+      </c>
+      <c r="K292" t="s">
+        <v>88</v>
+      </c>
+      <c r="L292" t="s">
+        <v>87</v>
+      </c>
+      <c r="M292" t="s">
+        <v>79</v>
+      </c>
+      <c r="N292" t="s">
+        <v>68</v>
+      </c>
+      <c r="O292" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D293" s="4">
+        <v>2</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F293" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H293" s="5"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="4">
+        <v>2021</v>
+      </c>
+      <c r="K293" t="s">
+        <v>85</v>
+      </c>
+      <c r="L293" t="s">
+        <v>87</v>
+      </c>
+      <c r="M293" t="s">
+        <v>79</v>
+      </c>
+      <c r="N293" t="s">
+        <v>89</v>
+      </c>
+      <c r="O293" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D294" s="4">
+        <v>0</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F294" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="4">
+        <v>2021</v>
+      </c>
+      <c r="K294" t="s">
+        <v>88</v>
+      </c>
+      <c r="L294" t="s">
+        <v>87</v>
+      </c>
+      <c r="M294" t="s">
+        <v>79</v>
+      </c>
+      <c r="N294" t="s">
+        <v>33</v>
+      </c>
+      <c r="O294" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D295" s="5"/>
+      <c r="E295" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F295" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G295" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H295" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I295" s="5"/>
+      <c r="J295" s="5"/>
+      <c r="K295" t="s">
+        <v>88</v>
+      </c>
+      <c r="L295" t="s">
+        <v>86</v>
+      </c>
+      <c r="P295" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D296" s="4">
+        <v>4</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F296" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G296" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H296" s="5"/>
+      <c r="I296" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J296" s="5"/>
+      <c r="K296" t="s">
+        <v>85</v>
+      </c>
+      <c r="L296" t="s">
+        <v>87</v>
+      </c>
+      <c r="M296" t="s">
+        <v>23</v>
+      </c>
+      <c r="N296" t="s">
+        <v>22</v>
+      </c>
+      <c r="O296" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D297" s="4">
+        <v>0</v>
+      </c>
+      <c r="E297" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F297" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G297" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H297" s="4">
+        <v>3</v>
+      </c>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5"/>
+      <c r="K297" t="s">
+        <v>88</v>
+      </c>
+      <c r="L297" t="s">
+        <v>86</v>
+      </c>
+      <c r="P297" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D298" s="4">
+        <v>0</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F298" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G298" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H298" s="4">
+        <v>2</v>
+      </c>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5"/>
+      <c r="K298" t="s">
+        <v>88</v>
+      </c>
+      <c r="L298" t="s">
+        <v>86</v>
+      </c>
+      <c r="P298" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D299" s="4">
+        <v>5</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F299" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G299" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H299" s="5"/>
+      <c r="I299" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J299" s="5"/>
+      <c r="K299" t="s">
+        <v>85</v>
+      </c>
+      <c r="L299" t="s">
+        <v>87</v>
+      </c>
+      <c r="M299" t="s">
+        <v>23</v>
+      </c>
+      <c r="N299" t="s">
+        <v>33</v>
+      </c>
+      <c r="O299" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D300" s="4">
+        <v>2</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F300" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G300" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H300" s="5"/>
+      <c r="I300" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J300" s="5"/>
+      <c r="K300" t="s">
+        <v>85</v>
+      </c>
+      <c r="L300" t="s">
+        <v>87</v>
+      </c>
+      <c r="M300" t="s">
+        <v>23</v>
+      </c>
+      <c r="N300" t="s">
+        <v>33</v>
+      </c>
+      <c r="O300" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D301" s="4">
+        <v>2</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F301" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G301" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H301" s="5"/>
+      <c r="I301" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J301" s="5"/>
+      <c r="K301" t="s">
+        <v>85</v>
+      </c>
+      <c r="L301" t="s">
+        <v>87</v>
+      </c>
+      <c r="M301" t="s">
+        <v>52</v>
+      </c>
+      <c r="N301" t="s">
+        <v>41</v>
+      </c>
+      <c r="O301" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D302" s="5"/>
+      <c r="E302" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G302" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H302" s="5"/>
+      <c r="I302" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J302" s="5"/>
+      <c r="K302" t="s">
+        <v>88</v>
+      </c>
+      <c r="L302" t="s">
+        <v>87</v>
+      </c>
+      <c r="M302" t="s">
+        <v>23</v>
+      </c>
+      <c r="N302" t="s">
+        <v>33</v>
+      </c>
+      <c r="O302" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D303" s="4">
+        <v>5</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F303" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G303" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H303" s="5"/>
+      <c r="I303" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J303" s="5"/>
+      <c r="K303" t="s">
+        <v>85</v>
+      </c>
+      <c r="L303" t="s">
+        <v>87</v>
+      </c>
+      <c r="M303" t="s">
+        <v>52</v>
+      </c>
+      <c r="N303" t="s">
+        <v>22</v>
+      </c>
+      <c r="O303" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D304" s="4">
+        <v>0</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F304" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G304" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H304" s="5"/>
+      <c r="I304" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J304" s="5"/>
+      <c r="K304" t="s">
+        <v>88</v>
+      </c>
+      <c r="L304" t="s">
+        <v>87</v>
+      </c>
+      <c r="M304" t="s">
+        <v>57</v>
+      </c>
+      <c r="N304" t="s">
+        <v>33</v>
+      </c>
+      <c r="O304" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D305" s="4">
+        <v>0</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F305" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G305" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H305" s="5"/>
+      <c r="I305" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J305" s="5"/>
+      <c r="K305" t="s">
+        <v>88</v>
+      </c>
+      <c r="L305" t="s">
+        <v>87</v>
+      </c>
+      <c r="M305" t="s">
+        <v>38</v>
+      </c>
+      <c r="N305" t="s">
+        <v>33</v>
+      </c>
+      <c r="O305" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D306" s="4">
+        <v>2</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F306" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G306" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H306" s="5"/>
+      <c r="I306" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J306" s="5"/>
+      <c r="K306" t="s">
+        <v>85</v>
+      </c>
+      <c r="L306" t="s">
+        <v>87</v>
+      </c>
+      <c r="M306" t="s">
+        <v>57</v>
+      </c>
+      <c r="N306" t="s">
+        <v>33</v>
+      </c>
+      <c r="O306" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" s="4">
+        <v>1</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G307" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H307" s="5"/>
+      <c r="I307" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J307" s="5"/>
+      <c r="K307" t="s">
+        <v>85</v>
+      </c>
+      <c r="L307" t="s">
+        <v>87</v>
+      </c>
+      <c r="M307" t="s">
+        <v>54</v>
+      </c>
+      <c r="N307" t="s">
+        <v>33</v>
+      </c>
+      <c r="O307" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D308" s="4">
+        <v>2</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F308" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G308" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H308" s="5"/>
+      <c r="I308" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J308" s="5"/>
+      <c r="K308" t="s">
+        <v>85</v>
+      </c>
+      <c r="L308" t="s">
+        <v>87</v>
+      </c>
+      <c r="M308" t="s">
+        <v>38</v>
+      </c>
+      <c r="N308" t="s">
+        <v>89</v>
+      </c>
+      <c r="O308" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D309" s="6">
+        <v>13</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F309" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G309" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H309" s="7"/>
+      <c r="I309" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J309" s="7"/>
+      <c r="K309" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L309" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M309" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N309" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O309" s="8" t="s">
         <v>34</v>
       </c>
     </row>
